--- a/Data/SeedHandlingdatabase_Alex.xlsx
+++ b/Data/SeedHandlingdatabase_Alex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Box Sync\Rogers Lab\Rogers Lab Meeting\Gut passage project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\My Depository\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3899,9 +3899,6 @@
     <t>Ingesition had no effect on germination</t>
   </si>
   <si>
-    <t>Temperate or Troical</t>
-  </si>
-  <si>
     <t>Temperate</t>
   </si>
   <si>
@@ -4527,12 +4524,6 @@
   </si>
   <si>
     <t>Tropical</t>
-  </si>
-  <si>
-    <t>Old or New World</t>
-  </si>
-  <si>
-    <t>Island or Main Land</t>
   </si>
   <si>
     <t>Old World</t>
@@ -5151,6 +5142,15 @@
   </si>
   <si>
     <t>Psidium guajava, Eugenia dysenterica, Hancornia speciosa, Annona crassiflora, Caryocar brasiliense, Hymenaea stignocarpa, Passiflora edulis, Solanum lycocarpum, Solanum palinacanthum, Spondias tuberosa, Spondias purpurea, Talisia esculenta</t>
+  </si>
+  <si>
+    <t>location1</t>
+  </si>
+  <si>
+    <t>location2</t>
+  </si>
+  <si>
+    <t>location3</t>
   </si>
 </sst>
 </file>
@@ -5712,9 +5712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="71" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5734,7 +5734,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5761,16 +5761,16 @@
         <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1258</v>
+        <v>1656</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1468</v>
+        <v>1657</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1469</v>
+        <v>1658</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>31</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>513</v>
@@ -5829,13 +5829,13 @@
         <v>700</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>40</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>513</v>
@@ -5867,10 +5867,10 @@
         <v>514</v>
       </c>
       <c r="G3" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="H3" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="I3" t="s">
         <v>515</v>
@@ -5879,13 +5879,13 @@
         <v>700</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>186</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>735</v>
@@ -5920,7 +5920,7 @@
         <v>736</v>
       </c>
       <c r="H4" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>737</v>
@@ -5929,13 +5929,13 @@
         <v>700</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>40</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="5" spans="1:31" ht="12.75">
       <c r="A5" s="10" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>696</v>
@@ -5970,7 +5970,7 @@
         <v>699</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>700</v>
@@ -5979,13 +5979,13 @@
         <v>700</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>40</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>1148</v>
@@ -6017,10 +6017,10 @@
         <v>1149</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="H6" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>1150</v>
@@ -6029,13 +6029,13 @@
         <v>1150</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>40</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>385</v>
@@ -6079,13 +6079,13 @@
         <v>390</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>44</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>262</v>
@@ -6117,25 +6117,25 @@
         <v>263</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>107</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>44</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>174</v>
@@ -6173,16 +6173,16 @@
         <v>178</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>44</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="10" spans="1:31" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>309</v>
@@ -6226,13 +6226,13 @@
         <v>313</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>44</v>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="11" spans="1:31" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>256</v>
@@ -6264,7 +6264,7 @@
         <v>257</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>259</v>
@@ -6276,13 +6276,13 @@
         <v>777</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>44</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="12" spans="1:31" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>356</v>
@@ -6314,7 +6314,7 @@
         <v>357</v>
       </c>
       <c r="G12" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>358</v>
@@ -6326,13 +6326,13 @@
         <v>95</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>40</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="13" spans="1:31" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>410</v>
@@ -6376,13 +6376,13 @@
         <v>95</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>40</v>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>428</v>
@@ -6414,10 +6414,10 @@
         <v>430</v>
       </c>
       <c r="G14" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="H14" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>431</v>
@@ -6426,13 +6426,13 @@
         <v>95</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>40</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>346</v>
@@ -6464,10 +6464,10 @@
         <v>347</v>
       </c>
       <c r="G15" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="H15" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="I15" t="s">
         <v>348</v>
@@ -6476,13 +6476,13 @@
         <v>95</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>40</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>939</v>
@@ -6514,7 +6514,7 @@
         <v>940</v>
       </c>
       <c r="G16" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="H16" t="s">
         <v>941</v>
@@ -6526,13 +6526,13 @@
         <v>95</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>40</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>908</v>
@@ -6564,7 +6564,7 @@
         <v>910</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>911</v>
@@ -6573,16 +6573,16 @@
         <v>912</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>40</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>1219</v>
@@ -6623,13 +6623,13 @@
         <v>95</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>40</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>1206</v>
@@ -6673,13 +6673,13 @@
         <v>95</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L19" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>40</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>309</v>
@@ -6723,13 +6723,13 @@
         <v>313</v>
       </c>
       <c r="K20" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>44</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>220</v>
@@ -6764,7 +6764,7 @@
         <v>223</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>221</v>
@@ -6773,13 +6773,13 @@
         <v>905</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L21" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>44</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>543</v>
@@ -6814,7 +6814,7 @@
         <v>546</v>
       </c>
       <c r="H22" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>548</v>
@@ -6823,13 +6823,13 @@
         <v>95</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L22" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>40</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>635</v>
@@ -6861,10 +6861,10 @@
         <v>636</v>
       </c>
       <c r="G23" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="I23" t="s">
         <v>637</v>
@@ -6873,13 +6873,13 @@
         <v>95</v>
       </c>
       <c r="K23" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>638</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>10</v>
@@ -6920,16 +6920,16 @@
         <v>132</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>40</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>198</v>
@@ -6973,13 +6973,13 @@
         <v>95</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L25" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>44</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>1114</v>
@@ -7023,13 +7023,13 @@
         <v>1119</v>
       </c>
       <c r="K26" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>40</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>1253</v>
@@ -7070,16 +7070,16 @@
         <v>1256</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>44</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>227</v>
@@ -7111,7 +7111,7 @@
         <v>226</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>225</v>
@@ -7123,13 +7123,13 @@
         <v>107</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>228</v>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>795</v>
@@ -7161,7 +7161,7 @@
         <v>794</v>
       </c>
       <c r="G29" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="H29" t="s">
         <v>791</v>
@@ -7173,13 +7173,13 @@
         <v>107</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>40</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>662</v>
@@ -7214,7 +7214,7 @@
         <v>664</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="I30" t="s">
         <v>665</v>
@@ -7223,13 +7223,13 @@
         <v>107</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>40</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>764</v>
@@ -7273,13 +7273,13 @@
         <v>107</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>40</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B32" t="s">
         <v>1053</v>
@@ -7311,10 +7311,10 @@
         <v>1054</v>
       </c>
       <c r="G32" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="I32" t="s">
         <v>1055</v>
@@ -7323,13 +7323,13 @@
         <v>107</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>40</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>869</v>
@@ -7364,7 +7364,7 @@
         <v>871</v>
       </c>
       <c r="H33" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>107</v>
@@ -7373,13 +7373,13 @@
         <v>107</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>40</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>232</v>
@@ -7423,13 +7423,13 @@
         <v>107</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>44</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>880</v>
@@ -7461,7 +7461,7 @@
         <v>881</v>
       </c>
       <c r="G35" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="H35" t="s">
         <v>882</v>
@@ -7470,16 +7470,16 @@
         <v>883</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L35" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>40</v>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>982</v>
@@ -7508,7 +7508,7 @@
         <v>2002</v>
       </c>
       <c r="F36" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>985</v>
@@ -7520,16 +7520,16 @@
         <v>983</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>40</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>608</v>
@@ -7561,25 +7561,25 @@
         <v>609</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="H37" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>610</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L37" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>40</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>402</v>
@@ -7623,13 +7623,13 @@
         <v>905</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>44</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>423</v>
@@ -7661,7 +7661,7 @@
         <v>424</v>
       </c>
       <c r="G39" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>426</v>
@@ -7673,13 +7673,13 @@
         <v>1229</v>
       </c>
       <c r="K39" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>44</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1">
       <c r="A40" s="10" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>608</v>
@@ -7711,7 +7711,7 @@
         <v>631</v>
       </c>
       <c r="G40" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>632</v>
@@ -7720,16 +7720,16 @@
         <v>629</v>
       </c>
       <c r="J40" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L40" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>40</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>925</v>
@@ -7764,7 +7764,7 @@
         <v>927</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>928</v>
@@ -7773,13 +7773,13 @@
         <v>928</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>44</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="10" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>816</v>
@@ -7811,25 +7811,25 @@
         <v>818</v>
       </c>
       <c r="G42" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>819</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>40</v>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>63</v>
@@ -7861,10 +7861,10 @@
         <v>65</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>66</v>
@@ -7873,13 +7873,13 @@
         <v>66</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>44</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1">
       <c r="A44" s="10" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>339</v>
@@ -7911,7 +7911,7 @@
         <v>340</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>342</v>
@@ -7923,13 +7923,13 @@
         <v>88</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>44</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>361</v>
@@ -7973,13 +7973,13 @@
         <v>905</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>89</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
@@ -8023,13 +8023,13 @@
         <v>66</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>44</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>1250</v>
@@ -8061,10 +8061,10 @@
         <v>1251</v>
       </c>
       <c r="G47" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="H47" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>217</v>
@@ -8073,13 +8073,13 @@
         <v>217</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>44</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1">
       <c r="A48" s="10" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>410</v>
@@ -8120,16 +8120,16 @@
         <v>419</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>44</v>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>232</v>
@@ -8173,13 +8173,13 @@
         <v>107</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N49" s="10" t="s">
         <v>44</v>
@@ -8193,7 +8193,7 @@
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>1245</v>
@@ -8211,7 +8211,7 @@
         <v>1246</v>
       </c>
       <c r="G50" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="H50" t="s">
         <v>1247</v>
@@ -8223,13 +8223,13 @@
         <v>88</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>44</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1">
       <c r="A51" s="10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>278</v>
@@ -8273,13 +8273,13 @@
         <v>185</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L51" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M51" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N51" s="10" t="s">
         <v>44</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>931</v>
@@ -8311,7 +8311,7 @@
         <v>933</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="H52" t="s">
         <v>934</v>
@@ -8320,16 +8320,16 @@
         <v>935</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>44</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>327</v>
@@ -8361,7 +8361,7 @@
         <v>328</v>
       </c>
       <c r="G53" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="H53" t="s">
         <v>329</v>
@@ -8373,13 +8373,13 @@
         <v>88</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>40</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>293</v>
@@ -8423,13 +8423,13 @@
         <v>88</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>40</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>293</v>
@@ -8461,7 +8461,7 @@
         <v>299</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>296</v>
@@ -8473,13 +8473,13 @@
         <v>88</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>40</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1">
       <c r="A56" s="10" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>164</v>
@@ -8523,13 +8523,13 @@
         <v>88</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>40</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1">
       <c r="A57" s="10" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>164</v>
@@ -8573,13 +8573,13 @@
         <v>88</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>40</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>73</v>
@@ -8611,10 +8611,10 @@
         <v>75</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>76</v>
@@ -8623,13 +8623,13 @@
         <v>865</v>
       </c>
       <c r="K58" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M58" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N58" s="11" t="s">
         <v>44</v>
@@ -8643,7 +8643,7 @@
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1">
       <c r="A59" s="10" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>780</v>
@@ -8664,7 +8664,7 @@
         <v>782</v>
       </c>
       <c r="H59" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="I59" t="s">
         <v>783</v>
@@ -8673,13 +8673,13 @@
         <v>88</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>40</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>1240</v>
@@ -8711,25 +8711,25 @@
         <v>1241</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>1242</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>44</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="61" spans="1:16" ht="15.75" customHeight="1">
       <c r="A61" s="10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>943</v>
@@ -8761,25 +8761,25 @@
         <v>944</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="I61" t="s">
         <v>945</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="K61" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>44</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>376</v>
@@ -8820,16 +8820,16 @@
         <v>381</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>40</v>
@@ -8843,7 +8843,7 @@
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1">
       <c r="A63" s="10" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>267</v>
@@ -8861,25 +8861,25 @@
         <v>268</v>
       </c>
       <c r="G63" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>269</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L63" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>40</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75" customHeight="1">
       <c r="A64" s="10" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>853</v>
@@ -8920,16 +8920,16 @@
         <v>858</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L64" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M64" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>40</v>
@@ -8943,7 +8943,7 @@
     </row>
     <row r="65" spans="1:16" ht="15.75" customHeight="1">
       <c r="A65" s="10" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B65" t="s">
         <v>1021</v>
@@ -8964,22 +8964,22 @@
         <v>1024</v>
       </c>
       <c r="H65" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>1026</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>40</v>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="66" spans="1:16" ht="15.75" customHeight="1">
       <c r="A66" s="10" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>317</v>
@@ -9011,10 +9011,10 @@
         <v>315</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="I66" t="s">
         <v>318</v>
@@ -9023,13 +9023,13 @@
         <v>313</v>
       </c>
       <c r="K66" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L66" s="3" t="s">
+      <c r="M66" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>40</v>
@@ -9043,7 +9043,7 @@
     </row>
     <row r="67" spans="1:16" ht="15.75" customHeight="1">
       <c r="A67" s="10" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>556</v>
@@ -9064,22 +9064,22 @@
         <v>559</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>560</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L67" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>40</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="68" spans="1:16" ht="15.75" customHeight="1">
       <c r="A68" s="10" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>333</v>
@@ -9111,7 +9111,7 @@
         <v>334</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>335</v>
@@ -9120,16 +9120,16 @@
         <v>336</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="K68" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="M68" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>40</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="69" spans="1:16" ht="15.75" customHeight="1">
       <c r="A69" s="10" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>77</v>
@@ -9164,22 +9164,22 @@
         <v>80</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="I69" t="s">
         <v>81</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N69" s="11" t="s">
         <v>44</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="70" spans="1:16" ht="15.75" customHeight="1">
       <c r="A70" s="10" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>170</v>
@@ -9223,13 +9223,13 @@
         <v>185</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L70" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M70" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>40</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="71" spans="1:16" ht="15.75" customHeight="1">
       <c r="A71" s="10" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>361</v>
@@ -9273,13 +9273,13 @@
         <v>905</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>44</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75" customHeight="1">
       <c r="A72" s="10" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>181</v>
@@ -9311,7 +9311,7 @@
         <v>183</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>184</v>
@@ -9323,13 +9323,13 @@
         <v>185</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L72" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N72" s="10" t="s">
         <v>186</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1">
       <c r="A73" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>151</v>
@@ -9361,7 +9361,7 @@
         <v>462</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="H73" t="s">
         <v>463</v>
@@ -9373,13 +9373,13 @@
         <v>905</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N73" s="10" t="s">
         <v>89</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="74" spans="1:16" ht="15.75" customHeight="1">
       <c r="A74" s="10" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>561</v>
@@ -9420,16 +9420,16 @@
         <v>566</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>44</v>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="75" spans="1:16" ht="15.75" customHeight="1">
       <c r="A75" s="10" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>978</v>
@@ -9470,16 +9470,16 @@
         <v>979</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N75" s="10" t="s">
         <v>44</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="76" spans="1:16" ht="15.75" customHeight="1">
       <c r="A76" s="10" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>517</v>
@@ -9523,13 +9523,13 @@
         <v>905</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L76" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M76" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N76" s="10" t="s">
         <v>44</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="77" spans="1:16" ht="15.75" customHeight="1">
       <c r="A77" s="10" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>532</v>
@@ -9561,7 +9561,7 @@
         <v>534</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>107</v>
@@ -9570,13 +9570,13 @@
         <v>107</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N77" s="10" t="s">
         <v>44</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="78" spans="1:16" ht="15.75" customHeight="1">
       <c r="A78" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>467</v>
@@ -9617,16 +9617,16 @@
         <v>471</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L78" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M78" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N78" s="10" t="s">
         <v>44</v>
@@ -9640,7 +9640,7 @@
     </row>
     <row r="79" spans="1:16" ht="15.75" customHeight="1">
       <c r="A79" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>474</v>
@@ -9658,25 +9658,25 @@
         <v>476</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="I79" t="s">
         <v>477</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L79" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M79" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N79" s="10" t="s">
         <v>44</v>
@@ -9690,7 +9690,7 @@
     </row>
     <row r="80" spans="1:16" ht="15.75" customHeight="1">
       <c r="A80" s="10" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>278</v>
@@ -9708,10 +9708,10 @@
         <v>290</v>
       </c>
       <c r="G80" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="H80" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>185</v>
@@ -9720,13 +9720,13 @@
         <v>185</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L80" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M80" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N80" s="10" t="s">
         <v>40</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1">
       <c r="A81" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>77</v>
@@ -9758,25 +9758,25 @@
         <v>969</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="I81" t="s">
         <v>81</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N81" s="10" t="s">
         <v>44</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="82" spans="1:16" ht="15.75" customHeight="1">
       <c r="A82" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>77</v>
@@ -9808,25 +9808,25 @@
         <v>969</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="I82" t="s">
         <v>81</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>44</v>
@@ -9840,7 +9840,7 @@
     </row>
     <row r="83" spans="1:16" ht="15.75" customHeight="1">
       <c r="A83" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>77</v>
@@ -9858,25 +9858,25 @@
         <v>969</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="I83" t="s">
         <v>81</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>44</v>
@@ -9890,7 +9890,7 @@
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1">
       <c r="A84" s="10" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>181</v>
@@ -9908,7 +9908,7 @@
         <v>190</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>191</v>
@@ -9920,13 +9920,13 @@
         <v>185</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L84" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M84" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N84" s="10" t="s">
         <v>40</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="85" spans="1:16" ht="15.75" customHeight="1">
       <c r="A85" s="10" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>971</v>
@@ -9970,13 +9970,13 @@
         <v>217</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N85" s="10" t="s">
         <v>40</v>
@@ -9990,7 +9990,7 @@
     </row>
     <row r="86" spans="1:16" ht="15.75" customHeight="1">
       <c r="A86" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>181</v>
@@ -10008,10 +10008,10 @@
         <v>195</v>
       </c>
       <c r="G86" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="H86" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>185</v>
@@ -10020,13 +10020,13 @@
         <v>185</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L86" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M86" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N86" s="10" t="s">
         <v>40</v>
@@ -10040,7 +10040,7 @@
     </row>
     <row r="87" spans="1:16" ht="15.75" customHeight="1">
       <c r="A87" s="10" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B87" t="s">
         <v>1225</v>
@@ -10070,13 +10070,13 @@
         <v>1229</v>
       </c>
       <c r="K87" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L87" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="M87" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N87" s="10" t="s">
         <v>44</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="88" spans="1:16" ht="15.75" customHeight="1">
       <c r="A88" s="10" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>994</v>
@@ -10111,22 +10111,22 @@
         <v>323</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>996</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="K88" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L88" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="M88" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N88" s="10" t="s">
         <v>44</v>
@@ -10140,7 +10140,7 @@
     </row>
     <row r="89" spans="1:16" ht="15.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>690</v>
@@ -10170,13 +10170,13 @@
         <v>700</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N89" s="10" t="s">
         <v>44</v>
@@ -10190,7 +10190,7 @@
     </row>
     <row r="90" spans="1:16" ht="15.75" customHeight="1">
       <c r="A90" s="10" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>537</v>
@@ -10208,7 +10208,7 @@
         <v>538</v>
       </c>
       <c r="G90" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="H90" t="s">
         <v>540</v>
@@ -10220,13 +10220,13 @@
         <v>905</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N90" s="10" t="s">
         <v>44</v>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1">
       <c r="A91" s="10" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>1212</v>
@@ -10270,13 +10270,13 @@
         <v>1216</v>
       </c>
       <c r="K91" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N91" s="10" t="s">
         <v>44</v>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1">
       <c r="A92" s="10" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>949</v>
@@ -10320,13 +10320,13 @@
         <v>928</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N92" s="10" t="s">
         <v>40</v>
@@ -10340,7 +10340,7 @@
     </row>
     <row r="93" spans="1:16" ht="15.75" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>504</v>
@@ -10361,22 +10361,22 @@
         <v>501</v>
       </c>
       <c r="H93" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="I93" t="s">
         <v>502</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N93" s="10" t="s">
         <v>44</v>
@@ -10390,7 +10390,7 @@
     </row>
     <row r="94" spans="1:16" ht="15.75" customHeight="1">
       <c r="A94" s="10" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>949</v>
@@ -10408,10 +10408,10 @@
         <v>961</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="H94" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="I94" t="s">
         <v>953</v>
@@ -10420,13 +10420,13 @@
         <v>928</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N94" s="10" t="s">
         <v>40</v>
@@ -10440,7 +10440,7 @@
     </row>
     <row r="95" spans="1:16" ht="15.75" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>601</v>
@@ -10461,7 +10461,7 @@
         <v>964</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="I95" t="s">
         <v>965</v>
@@ -10470,13 +10470,13 @@
         <v>928</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N95" s="10" t="s">
         <v>40</v>
@@ -10490,7 +10490,7 @@
     </row>
     <row r="96" spans="1:16" ht="15.75" customHeight="1">
       <c r="A96" s="10" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>601</v>
@@ -10520,13 +10520,13 @@
         <v>928</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L96" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M96" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N96" s="10" t="s">
         <v>40</v>
@@ -10540,7 +10540,7 @@
     </row>
     <row r="97" spans="1:16" ht="15.75" customHeight="1">
       <c r="A97" s="10" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B97" t="s">
         <v>84</v>
@@ -10558,7 +10558,7 @@
         <v>86</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="H97" t="s">
         <v>87</v>
@@ -10567,16 +10567,16 @@
         <v>88</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N97" s="11" t="s">
         <v>44</v>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="98" spans="1:16" ht="15.75" customHeight="1">
       <c r="A98" s="10" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>998</v>
@@ -10608,7 +10608,7 @@
         <v>1002</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="H98" t="s">
         <v>1000</v>
@@ -10620,13 +10620,13 @@
         <v>95</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L98" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M98" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N98" s="10" t="s">
         <v>44</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="99" spans="1:16" ht="15.75" customHeight="1">
       <c r="A99" s="10" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>361</v>
@@ -10658,7 +10658,7 @@
         <v>373</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="H99" t="s">
         <v>374</v>
@@ -10670,13 +10670,13 @@
         <v>905</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N99" s="10" t="s">
         <v>44</v>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="100" spans="1:16" ht="15.75" customHeight="1">
       <c r="A100" s="10" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>361</v>
@@ -10720,13 +10720,13 @@
         <v>905</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N100" s="10" t="s">
         <v>44</v>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="101" spans="1:16" ht="15.75" customHeight="1">
       <c r="A101" s="10" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>833</v>
@@ -10761,7 +10761,7 @@
         <v>836</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="I101" s="23" t="s">
         <v>837</v>
@@ -10770,13 +10770,13 @@
         <v>928</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N101" s="10" t="s">
         <v>40</v>
@@ -10790,7 +10790,7 @@
     </row>
     <row r="102" spans="1:16" ht="15.75" customHeight="1">
       <c r="A102" s="10" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>756</v>
@@ -10817,16 +10817,16 @@
         <v>761</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="K102" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N102" s="10" t="s">
         <v>40</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="103" spans="1:16" ht="15.75" customHeight="1">
       <c r="A103" s="10" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>667</v>
@@ -10861,22 +10861,22 @@
         <v>669</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>670</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N103" s="10" t="s">
         <v>44</v>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1">
       <c r="A104" s="10" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>12</v>
@@ -10917,16 +10917,16 @@
         <v>47</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N104" s="6" t="s">
         <v>44</v>
@@ -10940,7 +10940,7 @@
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1">
       <c r="A105" s="10" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>577</v>
@@ -10970,13 +10970,13 @@
         <v>905</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L105" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M105" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N105" s="10" t="s">
         <v>44</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1">
       <c r="A106" s="10" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B106" t="s">
         <v>90</v>
@@ -11008,7 +11008,7 @@
         <v>94</v>
       </c>
       <c r="G106" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>93</v>
@@ -11020,13 +11020,13 @@
         <v>107</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N106" s="11" t="s">
         <v>44</v>
@@ -11040,7 +11040,7 @@
     </row>
     <row r="107" spans="1:16" ht="15.75" customHeight="1">
       <c r="A107" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>743</v>
@@ -11070,13 +11070,13 @@
         <v>217</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N107" s="10" t="s">
         <v>44</v>
@@ -11090,7 +11090,7 @@
     </row>
     <row r="108" spans="1:16" ht="15.75" customHeight="1">
       <c r="A108" s="10" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>361</v>
@@ -11108,7 +11108,7 @@
         <v>713</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="H108" t="s">
         <v>374</v>
@@ -11120,13 +11120,13 @@
         <v>905</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N108" s="10" t="s">
         <v>44</v>
@@ -11140,7 +11140,7 @@
     </row>
     <row r="109" spans="1:16" ht="15.75" customHeight="1">
       <c r="A109" s="10" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>861</v>
@@ -11158,7 +11158,7 @@
         <v>863</v>
       </c>
       <c r="G109" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>864</v>
@@ -11170,13 +11170,13 @@
         <v>865</v>
       </c>
       <c r="K109" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L109" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L109" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M109" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N109" s="10" t="s">
         <v>40</v>
@@ -11190,7 +11190,7 @@
     </row>
     <row r="110" spans="1:16" ht="15.75" customHeight="1">
       <c r="A110" s="10" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B110" t="s">
         <v>959</v>
@@ -11217,16 +11217,16 @@
         <v>955</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="K110" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L110" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L110" s="3" t="s">
+      <c r="M110" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N110" s="10" t="s">
         <v>40</v>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="111" spans="1:16" ht="15.75" customHeight="1">
       <c r="A111" s="10" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>508</v>
@@ -11258,7 +11258,7 @@
         <v>509</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="I111" t="s">
         <v>511</v>
@@ -11267,13 +11267,13 @@
         <v>107</v>
       </c>
       <c r="K111" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N111" s="10" t="s">
         <v>44</v>
@@ -11287,7 +11287,7 @@
     </row>
     <row r="112" spans="1:16" ht="15.75" customHeight="1">
       <c r="A112" s="10" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>1005</v>
@@ -11317,13 +11317,13 @@
         <v>390</v>
       </c>
       <c r="K112" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L112" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L112" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M112" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N112" s="10" t="s">
         <v>40</v>
@@ -11337,7 +11337,7 @@
     </row>
     <row r="113" spans="1:16" ht="15.75" customHeight="1">
       <c r="A113" s="10" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>584</v>
@@ -11358,7 +11358,7 @@
         <v>587</v>
       </c>
       <c r="H113" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="I113" t="s">
         <v>390</v>
@@ -11367,13 +11367,13 @@
         <v>390</v>
       </c>
       <c r="K113" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L113" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L113" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M113" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N113" s="10" t="s">
         <v>40</v>
@@ -11387,7 +11387,7 @@
     </row>
     <row r="114" spans="1:16" ht="15.75" customHeight="1">
       <c r="A114" s="10" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>989</v>
@@ -11405,10 +11405,10 @@
         <v>990</v>
       </c>
       <c r="G114" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H114" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="I114" s="10" t="s">
         <v>991</v>
@@ -11417,13 +11417,13 @@
         <v>991</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N114" s="10" t="s">
         <v>40</v>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="115" spans="1:16" ht="15.75" customHeight="1">
       <c r="A115" s="10" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>655</v>
@@ -11455,7 +11455,7 @@
         <v>657</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>658</v>
@@ -11467,13 +11467,13 @@
         <v>991</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N115" s="10" t="s">
         <v>40</v>
@@ -11487,7 +11487,7 @@
     </row>
     <row r="116" spans="1:16" ht="15.75" customHeight="1">
       <c r="A116" s="10" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>717</v>
@@ -11514,16 +11514,16 @@
         <v>721</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N116" s="10" t="s">
         <v>44</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="117" spans="1:16" ht="15.75" customHeight="1">
       <c r="A117" s="10" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>823</v>
@@ -11558,7 +11558,7 @@
         <v>821</v>
       </c>
       <c r="H117" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>826</v>
@@ -11567,13 +11567,13 @@
         <v>826</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N117" s="10" t="s">
         <v>44</v>
@@ -11587,7 +11587,7 @@
     </row>
     <row r="118" spans="1:16" ht="15.75" customHeight="1">
       <c r="A118" s="10" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>1009</v>
@@ -11617,13 +11617,13 @@
         <v>185</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N118" s="10" t="s">
         <v>44</v>
@@ -11637,7 +11637,7 @@
     </row>
     <row r="119" spans="1:16" ht="15.75" customHeight="1">
       <c r="A119" s="10" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>1015</v>
@@ -11658,20 +11658,20 @@
         <v>1017</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="I119" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="J119" s="10"/>
       <c r="K119" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L119" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L119" s="3" t="s">
+      <c r="M119" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M119" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N119" s="10" t="s">
         <v>44</v>
@@ -11685,7 +11685,7 @@
     </row>
     <row r="120" spans="1:16" ht="15.75" customHeight="1">
       <c r="A120" s="10" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B120" t="s">
         <v>706</v>
@@ -11706,7 +11706,7 @@
         <v>709</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="I120" t="s">
         <v>710</v>
@@ -11715,13 +11715,13 @@
         <v>107</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N120" s="10" t="s">
         <v>44</v>
@@ -11735,7 +11735,7 @@
     </row>
     <row r="121" spans="1:16" ht="15.75" customHeight="1">
       <c r="A121" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>1034</v>
@@ -11756,7 +11756,7 @@
         <v>1037</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="I121" t="s">
         <v>1038</v>
@@ -11765,13 +11765,13 @@
         <v>991</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N121" s="10" t="s">
         <v>40</v>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="122" spans="1:16" ht="15.75" customHeight="1">
       <c r="A122" s="10" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B122" t="s">
         <v>60</v>
@@ -11815,13 +11815,13 @@
         <v>59</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L122" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M122" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M122" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N122" s="3" t="s">
         <v>40</v>
@@ -11835,7 +11835,7 @@
     </row>
     <row r="123" spans="1:16" ht="15.75" customHeight="1">
       <c r="A123" s="10" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>1064</v>
@@ -11856,7 +11856,7 @@
         <v>1067</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="I123" t="s">
         <v>1068</v>
@@ -11865,13 +11865,13 @@
         <v>1068</v>
       </c>
       <c r="K123" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L123" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L123" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M123" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N123" s="10" t="s">
         <v>40</v>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="124" spans="1:16" ht="15.75" customHeight="1">
       <c r="A124" s="10" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>786</v>
@@ -11912,16 +11912,16 @@
         <v>790</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="K124" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L124" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L124" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M124" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N124" s="10" t="s">
         <v>40</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="125" spans="1:16" ht="15.75" customHeight="1">
       <c r="A125" s="10" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>213</v>
@@ -11953,7 +11953,7 @@
         <v>215</v>
       </c>
       <c r="G125" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>216</v>
@@ -11965,13 +11965,13 @@
         <v>217</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N125" s="10" t="s">
         <v>186</v>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="126" spans="1:16" ht="15.75" customHeight="1">
       <c r="A126" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>1231</v>
@@ -12003,10 +12003,10 @@
         <v>1232</v>
       </c>
       <c r="G126" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>217</v>
@@ -12015,13 +12015,13 @@
         <v>217</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N126" s="10" t="s">
         <v>40</v>
@@ -12035,7 +12035,7 @@
     </row>
     <row r="127" spans="1:16" ht="15.75" customHeight="1">
       <c r="A127" s="10" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>886</v>
@@ -12056,22 +12056,22 @@
         <v>888</v>
       </c>
       <c r="H127" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="I127" t="s">
         <v>889</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N127" s="10" t="s">
         <v>40</v>
@@ -12085,7 +12085,7 @@
     </row>
     <row r="128" spans="1:16" ht="15.75" customHeight="1">
       <c r="A128" s="10" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>526</v>
@@ -12106,22 +12106,22 @@
         <v>529</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="I128" t="s">
         <v>530</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L128" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M128" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M128" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N128" s="10" t="s">
         <v>44</v>
@@ -12135,7 +12135,7 @@
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1">
       <c r="A129" s="10" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>433</v>
@@ -12156,7 +12156,7 @@
         <v>435</v>
       </c>
       <c r="H129" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>436</v>
@@ -12165,13 +12165,13 @@
         <v>436</v>
       </c>
       <c r="K129" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N129" s="10" t="s">
         <v>40</v>
@@ -12185,7 +12185,7 @@
     </row>
     <row r="130" spans="1:16" ht="15.75" customHeight="1">
       <c r="A130" s="10" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>20</v>
@@ -12215,13 +12215,13 @@
         <v>700</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N130" s="3" t="s">
         <v>44</v>
@@ -12235,7 +12235,7 @@
     </row>
     <row r="131" spans="1:16" ht="15.75" customHeight="1">
       <c r="A131" s="10" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>439</v>
@@ -12253,7 +12253,7 @@
         <v>440</v>
       </c>
       <c r="G131" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="H131" s="10" t="s">
         <v>442</v>
@@ -12265,13 +12265,13 @@
         <v>826</v>
       </c>
       <c r="K131" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N131" s="10" t="s">
         <v>40</v>
@@ -12285,7 +12285,7 @@
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1">
       <c r="A132" s="10" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>24</v>
@@ -12315,13 +12315,13 @@
         <v>54</v>
       </c>
       <c r="K132" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L132" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L132" s="3" t="s">
+      <c r="M132" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M132" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N132" s="3" t="s">
         <v>40</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1">
       <c r="A133" s="10" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>445</v>
@@ -12353,23 +12353,23 @@
         <v>447</v>
       </c>
       <c r="G133" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>448</v>
       </c>
       <c r="J133" s="10"/>
       <c r="K133" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L133" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M133" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M133" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N133" s="10" t="s">
         <v>44</v>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1">
       <c r="A134" s="10" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>550</v>
@@ -12404,7 +12404,7 @@
         <v>552</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>107</v>
@@ -12413,13 +12413,13 @@
         <v>107</v>
       </c>
       <c r="K134" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N134" s="10" t="s">
         <v>44</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1">
       <c r="A135" s="10" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>848</v>
@@ -12454,7 +12454,7 @@
         <v>851</v>
       </c>
       <c r="H135" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="I135" t="s">
         <v>54</v>
@@ -12463,13 +12463,13 @@
         <v>54</v>
       </c>
       <c r="K135" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L135" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L135" s="3" t="s">
+      <c r="M135" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M135" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N135" s="10" t="s">
         <v>40</v>
@@ -12483,7 +12483,7 @@
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1">
       <c r="A136" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>676</v>
@@ -12504,7 +12504,7 @@
         <v>675</v>
       </c>
       <c r="H136" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="I136" t="s">
         <v>678</v>
@@ -12513,13 +12513,13 @@
         <v>777</v>
       </c>
       <c r="K136" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L136" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M136" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M136" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N136" s="10" t="s">
         <v>40</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1">
       <c r="A137" s="10" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>676</v>
@@ -12551,7 +12551,7 @@
         <v>775</v>
       </c>
       <c r="G137" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="H137" s="10" t="s">
         <v>776</v>
@@ -12563,13 +12563,13 @@
         <v>777</v>
       </c>
       <c r="K137" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L137" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M137" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M137" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N137" s="10" t="s">
         <v>40</v>
@@ -12583,7 +12583,7 @@
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1">
       <c r="A138" s="10" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>811</v>
@@ -12601,7 +12601,7 @@
         <v>812</v>
       </c>
       <c r="G138" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="H138" t="s">
         <v>809</v>
@@ -12613,13 +12613,13 @@
         <v>991</v>
       </c>
       <c r="K138" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N138" s="10" t="s">
         <v>44</v>
@@ -12633,7 +12633,7 @@
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1">
       <c r="A139" s="10" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>770</v>
@@ -12651,7 +12651,7 @@
         <v>771</v>
       </c>
       <c r="G139" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="H139" s="10" t="s">
         <v>772</v>
@@ -12663,13 +12663,13 @@
         <v>777</v>
       </c>
       <c r="K139" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L139" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M139" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N139" s="10" t="s">
         <v>40</v>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1">
       <c r="A140" s="10" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>1031</v>
@@ -12704,22 +12704,22 @@
         <v>1030</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="I140" t="s">
         <v>88</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K140" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N140" s="10" t="s">
         <v>44</v>
@@ -12733,7 +12733,7 @@
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1">
       <c r="A141" s="10" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>1047</v>
@@ -12754,7 +12754,7 @@
         <v>1046</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="I141" s="10" t="s">
         <v>1050</v>
@@ -12763,13 +12763,13 @@
         <v>1050</v>
       </c>
       <c r="K141" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L141" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L141" s="3" t="s">
+      <c r="M141" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M141" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N141" s="10" t="s">
         <v>44</v>
@@ -12783,7 +12783,7 @@
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1">
       <c r="A142" s="10" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>798</v>
@@ -12801,10 +12801,10 @@
         <v>799</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="I142" s="10" t="s">
         <v>777</v>
@@ -12813,13 +12813,13 @@
         <v>777</v>
       </c>
       <c r="K142" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L142" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M142" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M142" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N142" s="10" t="s">
         <v>40</v>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1">
       <c r="A143" s="10" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>682</v>
@@ -12863,13 +12863,13 @@
         <v>107</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N143" s="10" t="s">
         <v>44</v>
@@ -12883,7 +12883,7 @@
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1">
       <c r="A144" s="10" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>1131</v>
@@ -12901,10 +12901,10 @@
         <v>1132</v>
       </c>
       <c r="G144" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="H144" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="I144" s="10" t="s">
         <v>777</v>
@@ -12913,13 +12913,13 @@
         <v>777</v>
       </c>
       <c r="K144" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L144" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M144" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M144" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N144" s="10" t="s">
         <v>40</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1">
       <c r="A145" s="10" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>361</v>
@@ -12951,7 +12951,7 @@
         <v>362</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="H145" t="s">
         <v>363</v>
@@ -12963,13 +12963,13 @@
         <v>905</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N145" s="10" t="s">
         <v>40</v>
@@ -12983,7 +12983,7 @@
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1">
       <c r="A146" s="10" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>730</v>
@@ -13001,7 +13001,7 @@
         <v>731</v>
       </c>
       <c r="G146" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="H146" t="s">
         <v>732</v>
@@ -13013,13 +13013,13 @@
         <v>107</v>
       </c>
       <c r="K146" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N146" s="10" t="s">
         <v>44</v>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1">
       <c r="A147" s="10" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>591</v>
@@ -13063,13 +13063,13 @@
         <v>905</v>
       </c>
       <c r="K147" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N147" s="10" t="s">
         <v>40</v>
@@ -13083,7 +13083,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1">
       <c r="A148" s="10" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>1058</v>
@@ -13113,13 +13113,13 @@
         <v>905</v>
       </c>
       <c r="K148" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N148" s="10" t="s">
         <v>44</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1">
       <c r="A149" s="10" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>649</v>
@@ -13151,22 +13151,22 @@
         <v>652</v>
       </c>
       <c r="G149" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="I149" t="s">
         <v>650</v>
       </c>
       <c r="K149" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L149" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M149" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M149" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N149" s="10" t="s">
         <v>44</v>
@@ -13180,7 +13180,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1">
       <c r="A150" s="10" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>591</v>
@@ -13210,13 +13210,13 @@
         <v>905</v>
       </c>
       <c r="K150" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N150" s="10" t="s">
         <v>40</v>
@@ -13230,7 +13230,7 @@
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1">
       <c r="A151" s="10" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>804</v>
@@ -13257,16 +13257,16 @@
         <v>807</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K151" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N151" s="10" t="s">
         <v>44</v>
@@ -13280,7 +13280,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1">
       <c r="A152" s="10" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>445</v>
@@ -13310,13 +13310,13 @@
         <v>905</v>
       </c>
       <c r="K152" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L152" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M152" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M152" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N152" s="10" t="s">
         <v>44</v>
@@ -13330,7 +13330,7 @@
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1">
       <c r="A153" s="10" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B153" t="s">
         <v>1083</v>
@@ -13360,13 +13360,13 @@
         <v>991</v>
       </c>
       <c r="K153" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N153" s="10" t="s">
         <v>44</v>
@@ -13380,7 +13380,7 @@
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1">
       <c r="A154" s="10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>484</v>
@@ -13410,13 +13410,13 @@
         <v>390</v>
       </c>
       <c r="K154" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L154" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L154" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M154" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N154" s="10" t="s">
         <v>44</v>
@@ -13430,7 +13430,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1">
       <c r="A155" s="10" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>750</v>
@@ -13451,7 +13451,7 @@
         <v>753</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="I155" s="10" t="s">
         <v>107</v>
@@ -13460,13 +13460,13 @@
         <v>107</v>
       </c>
       <c r="K155" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N155" s="10" t="s">
         <v>44</v>
@@ -13480,7 +13480,7 @@
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1">
       <c r="A156" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>480</v>
@@ -13498,10 +13498,10 @@
         <v>481</v>
       </c>
       <c r="G156" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="H156" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="I156" t="s">
         <v>482</v>
@@ -13510,13 +13510,13 @@
         <v>905</v>
       </c>
       <c r="K156" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N156" s="10" t="s">
         <v>40</v>
@@ -13530,7 +13530,7 @@
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1">
       <c r="A157" s="10" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>7</v>
@@ -13548,7 +13548,7 @@
         <v>42</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>27</v>
@@ -13560,13 +13560,13 @@
         <v>905</v>
       </c>
       <c r="K157" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L157" s="28" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N157" s="4" t="s">
         <v>40</v>
@@ -13580,7 +13580,7 @@
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1">
       <c r="A158" s="10" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>1071</v>
@@ -13598,7 +13598,7 @@
         <v>1072</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="H158" s="10" t="s">
         <v>1073</v>
@@ -13608,13 +13608,13 @@
       </c>
       <c r="J158" s="10"/>
       <c r="K158" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N158" s="10" t="s">
         <v>44</v>
@@ -13628,7 +13628,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1">
       <c r="A159" s="10" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>892</v>
@@ -13658,13 +13658,13 @@
         <v>905</v>
       </c>
       <c r="K159" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N159" s="10" t="s">
         <v>40</v>
@@ -13678,7 +13678,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1">
       <c r="A160" s="10" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>614</v>
@@ -13699,22 +13699,22 @@
         <v>616</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="I160" s="10" t="s">
         <v>617</v>
       </c>
       <c r="J160" s="10" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="K160" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N160" s="10" t="s">
         <v>44</v>
@@ -13728,7 +13728,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1">
       <c r="A161" s="10" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>1103</v>
@@ -13749,7 +13749,7 @@
         <v>1106</v>
       </c>
       <c r="H161" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="I161" s="10" t="s">
         <v>905</v>
@@ -13758,13 +13758,13 @@
         <v>905</v>
       </c>
       <c r="K161" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L161" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M161" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M161" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N161" s="10" t="s">
         <v>40</v>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1">
       <c r="A162" s="10" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>1201</v>
@@ -13808,13 +13808,13 @@
         <v>777</v>
       </c>
       <c r="K162" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L162" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M162" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M162" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N162" s="10" t="s">
         <v>44</v>
@@ -13828,7 +13828,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1">
       <c r="A163" s="10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B163" t="s">
         <v>111</v>
@@ -13855,16 +13855,16 @@
         <v>117</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N163" s="10" t="s">
         <v>44</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1">
       <c r="A164" s="10" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>900</v>
@@ -13908,13 +13908,13 @@
         <v>905</v>
       </c>
       <c r="K164" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L164" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M164" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M164" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N164" s="10" t="s">
         <v>40</v>
@@ -13928,7 +13928,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1">
       <c r="A165" s="10" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>1153</v>
@@ -13958,13 +13958,13 @@
         <v>1216</v>
       </c>
       <c r="K165" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L165" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L165" s="3" t="s">
+      <c r="M165" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M165" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N165" s="10" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1">
       <c r="A166" s="10" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>156</v>
@@ -14005,16 +14005,16 @@
         <v>161</v>
       </c>
       <c r="J166" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N166" s="10" t="s">
         <v>40</v>
@@ -14028,7 +14028,7 @@
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1">
       <c r="A167" s="10" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B167" s="21" t="s">
         <v>272</v>
@@ -14046,7 +14046,7 @@
         <v>274</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H167" t="s">
         <v>275</v>
@@ -14055,16 +14055,16 @@
         <v>276</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N167" s="10" t="s">
         <v>40</v>
@@ -14078,7 +14078,7 @@
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1">
       <c r="A168" s="10" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B168" t="s">
         <v>108</v>
@@ -14099,22 +14099,22 @@
         <v>113</v>
       </c>
       <c r="H168" s="10" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="I168" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J168" s="10" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="K168" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N168" s="10" t="s">
         <v>44</v>
@@ -14125,7 +14125,7 @@
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1">
       <c r="A169" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>829</v>
@@ -14146,22 +14146,22 @@
         <v>831</v>
       </c>
       <c r="H169" s="10" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="I169" s="10" t="s">
         <v>178</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K169" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N169" s="10" t="s">
         <v>44</v>
@@ -14175,7 +14175,7 @@
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1">
       <c r="A170" s="10" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>1097</v>
@@ -14205,13 +14205,13 @@
         <v>991</v>
       </c>
       <c r="K170" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N170" s="10" t="s">
         <v>44</v>
@@ -14225,7 +14225,7 @@
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1">
       <c r="A171" s="10" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>1196</v>
@@ -14246,7 +14246,7 @@
         <v>1199</v>
       </c>
       <c r="H171" s="10" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="I171" s="10" t="s">
         <v>865</v>
@@ -14255,13 +14255,13 @@
         <v>865</v>
       </c>
       <c r="K171" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L171" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L171" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M171" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N171" s="10" t="s">
         <v>44</v>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1">
       <c r="A172" s="10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>1193</v>
@@ -14305,13 +14305,13 @@
         <v>905</v>
       </c>
       <c r="K172" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L172" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M172" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M172" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N172" s="10" t="s">
         <v>44</v>
@@ -14325,7 +14325,7 @@
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1">
       <c r="A173" s="10" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>120</v>
@@ -14355,13 +14355,13 @@
         <v>865</v>
       </c>
       <c r="K173" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L173" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L173" s="3" t="s">
+      <c r="M173" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M173" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N173" s="10" t="s">
         <v>44</v>
@@ -14375,7 +14375,7 @@
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1">
       <c r="A174" s="10" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>205</v>
@@ -14402,16 +14402,16 @@
         <v>209</v>
       </c>
       <c r="J174" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N174" s="10" t="s">
         <v>40</v>
@@ -14425,7 +14425,7 @@
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1">
       <c r="A175" s="10" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>151</v>
@@ -14443,7 +14443,7 @@
         <v>393</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="H175" s="10" t="s">
         <v>399</v>
@@ -14452,16 +14452,16 @@
         <v>394</v>
       </c>
       <c r="J175" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K175" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N175" s="10" t="s">
         <v>40</v>
@@ -14475,7 +14475,7 @@
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1">
       <c r="A176" s="10" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>251</v>
@@ -14496,22 +14496,22 @@
         <v>249</v>
       </c>
       <c r="H176" s="20" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="I176" s="10" t="s">
         <v>253</v>
       </c>
       <c r="J176" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N176" s="10" t="s">
         <v>40</v>
@@ -14525,7 +14525,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1">
       <c r="A177" s="10" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B177" t="s">
         <v>126</v>
@@ -14555,13 +14555,13 @@
         <v>390</v>
       </c>
       <c r="K177" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L177" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L177" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M177" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N177" s="10" t="s">
         <v>44</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1">
       <c r="A178" s="10" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>625</v>
@@ -14596,7 +14596,7 @@
         <v>623</v>
       </c>
       <c r="H178" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="I178" t="s">
         <v>627</v>
@@ -14605,13 +14605,13 @@
         <v>627</v>
       </c>
       <c r="K178" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L178" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L178" s="3" t="s">
+      <c r="M178" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M178" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N178" s="10" t="s">
         <v>44</v>
@@ -14625,7 +14625,7 @@
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1">
       <c r="A179" s="10" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>16</v>
@@ -14643,7 +14643,7 @@
         <v>48</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>19</v>
@@ -14652,16 +14652,16 @@
         <v>49</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="K179" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L179" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L179" s="3" t="s">
+      <c r="M179" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M179" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N179" s="3" t="s">
         <v>44</v>
@@ -14675,7 +14675,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1">
       <c r="A180" s="10" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>922</v>
@@ -14693,25 +14693,25 @@
         <v>923</v>
       </c>
       <c r="G180" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="H180" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="I180" s="10" t="s">
         <v>912</v>
       </c>
       <c r="J180" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K180" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N180" s="10" t="s">
         <v>40</v>
@@ -14725,7 +14725,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1">
       <c r="A181" s="10" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>151</v>
@@ -14743,7 +14743,7 @@
         <v>397</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="H181" t="s">
         <v>398</v>
@@ -14752,16 +14752,16 @@
         <v>394</v>
       </c>
       <c r="J181" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N181" s="10" t="s">
         <v>40</v>
@@ -14775,7 +14775,7 @@
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1">
       <c r="A182" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>1235</v>
@@ -14796,22 +14796,22 @@
         <v>1237</v>
       </c>
       <c r="H182" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="I182" s="10" t="s">
         <v>1238</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K182" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N182" s="10" t="s">
         <v>40</v>
@@ -14825,7 +14825,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1">
       <c r="A183" s="10" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B183" t="s">
         <v>1181</v>
@@ -14846,7 +14846,7 @@
         <v>1183</v>
       </c>
       <c r="H183" s="10" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="I183" s="10" t="s">
         <v>1184</v>
@@ -14855,13 +14855,13 @@
         <v>95</v>
       </c>
       <c r="K183" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L183" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M183" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M183" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N183" s="10" t="s">
         <v>44</v>
@@ -14875,7 +14875,7 @@
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1">
       <c r="A184" s="10" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>1160</v>
@@ -14893,7 +14893,7 @@
         <v>1162</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="H184" t="s">
         <v>1163</v>
@@ -14905,13 +14905,13 @@
         <v>905</v>
       </c>
       <c r="K184" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L184" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M184" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M184" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N184" s="10" t="s">
         <v>44</v>
@@ -14925,7 +14925,7 @@
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1">
       <c r="A185" s="10" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>642</v>
@@ -14946,22 +14946,22 @@
         <v>645</v>
       </c>
       <c r="H185" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="I185" s="10" t="s">
         <v>646</v>
       </c>
       <c r="J185" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K185" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N185" s="10" t="s">
         <v>40</v>
@@ -14975,7 +14975,7 @@
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1">
       <c r="A186" s="10" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>1040</v>
@@ -14996,7 +14996,7 @@
         <v>1043</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="I186" s="10" t="s">
         <v>1044</v>
@@ -15005,13 +15005,13 @@
         <v>107</v>
       </c>
       <c r="K186" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N186" s="10" t="s">
         <v>44</v>
@@ -15025,7 +15025,7 @@
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1">
       <c r="A187" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>453</v>
@@ -15046,22 +15046,22 @@
         <v>452</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="I187" s="10" t="s">
         <v>456</v>
       </c>
       <c r="J187" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K187" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N187" s="10" t="s">
         <v>40</v>
@@ -15075,7 +15075,7 @@
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1">
       <c r="A188" s="10" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>1167</v>
@@ -15102,16 +15102,16 @@
         <v>1150</v>
       </c>
       <c r="J188" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K188" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N188" s="10" t="s">
         <v>44</v>
@@ -15125,7 +15125,7 @@
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1">
       <c r="A189" s="10" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>1187</v>
@@ -15146,7 +15146,7 @@
         <v>1189</v>
       </c>
       <c r="H189" s="10" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="I189" s="10" t="s">
         <v>107</v>
@@ -15155,13 +15155,13 @@
         <v>107</v>
       </c>
       <c r="K189" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N189" s="10" t="s">
         <v>44</v>
@@ -15175,7 +15175,7 @@
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1">
       <c r="A190" s="10" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>1174</v>
@@ -15205,13 +15205,13 @@
         <v>1119</v>
       </c>
       <c r="K190" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L190" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L190" s="3" t="s">
+      <c r="M190" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M190" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N190" s="10" t="s">
         <v>44</v>
@@ -15225,7 +15225,7 @@
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1">
       <c r="A191" s="10" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>302</v>
@@ -15255,13 +15255,13 @@
         <v>306</v>
       </c>
       <c r="K191" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L191" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L191" s="3" t="s">
+      <c r="M191" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M191" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N191" s="10" t="s">
         <v>40</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1">
       <c r="A192" s="10" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>1121</v>
@@ -15293,7 +15293,7 @@
         <v>1122</v>
       </c>
       <c r="G192" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="H192" t="s">
         <v>1123</v>
@@ -15302,16 +15302,16 @@
         <v>1124</v>
       </c>
       <c r="J192" s="10" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="K192" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L192" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L192" s="3" t="s">
+      <c r="M192" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M192" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N192" s="10" t="s">
         <v>40</v>
@@ -15325,7 +15325,7 @@
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1">
       <c r="A193" s="10" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>278</v>
@@ -15346,7 +15346,7 @@
         <v>280</v>
       </c>
       <c r="H193" s="10" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="I193" s="10" t="s">
         <v>282</v>
@@ -15355,13 +15355,13 @@
         <v>185</v>
       </c>
       <c r="K193" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L193" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M193" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M193" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N193" s="10" t="s">
         <v>40</v>
@@ -15375,7 +15375,7 @@
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1">
       <c r="A194" s="10" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>151</v>
@@ -15393,23 +15393,23 @@
         <v>458</v>
       </c>
       <c r="G194" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="H194" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="I194" s="10" t="s">
         <v>459</v>
       </c>
       <c r="J194" s="10"/>
       <c r="K194" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L194" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M194" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M194" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N194" s="10" t="s">
         <v>40</v>
@@ -15423,7 +15423,7 @@
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1">
       <c r="A195" s="10" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>703</v>
@@ -15444,22 +15444,22 @@
         <v>701</v>
       </c>
       <c r="H195" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="I195" s="10" t="s">
         <v>276</v>
       </c>
       <c r="J195" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K195" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N195" s="10" t="s">
         <v>40</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1">
       <c r="A196" s="10" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B196" t="s">
         <v>96</v>
@@ -15500,16 +15500,16 @@
         <v>101</v>
       </c>
       <c r="J196" s="10" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="K196" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L196" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L196" s="3" t="s">
+      <c r="M196" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M196" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N196" s="11" t="s">
         <v>40</v>
@@ -15523,7 +15523,7 @@
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1">
       <c r="A197" s="10" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>620</v>
@@ -15541,10 +15541,10 @@
         <v>621</v>
       </c>
       <c r="G197" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="H197" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="I197" t="s">
         <v>622</v>
@@ -15553,13 +15553,13 @@
         <v>777</v>
       </c>
       <c r="K197" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L197" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M197" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M197" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N197" s="10" t="s">
         <v>40</v>
@@ -15573,7 +15573,7 @@
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1">
       <c r="A198" s="10" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>840</v>
@@ -15600,16 +15600,16 @@
         <v>845</v>
       </c>
       <c r="J198" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K198" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N198" s="10" t="s">
         <v>44</v>
@@ -15623,7 +15623,7 @@
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1">
       <c r="A199" s="10" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>1091</v>
@@ -15641,7 +15641,7 @@
         <v>1093</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="H199" t="s">
         <v>1094</v>
@@ -15650,16 +15650,16 @@
         <v>1090</v>
       </c>
       <c r="J199" s="10" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="K199" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N199" s="10" t="s">
         <v>40</v>
@@ -15673,7 +15673,7 @@
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1">
       <c r="A200" s="10" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>1108</v>
@@ -15691,25 +15691,25 @@
         <v>1110</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="H200" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="I200" s="10" t="s">
         <v>1111</v>
       </c>
       <c r="J200" s="10" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="K200" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L200" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M200" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M200" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N200" s="10" t="s">
         <v>40</v>
@@ -15723,7 +15723,7 @@
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1">
       <c r="A201" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>1135</v>
@@ -15741,7 +15741,7 @@
         <v>1136</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="H201" s="10" t="s">
         <v>1137</v>
@@ -15750,16 +15750,16 @@
         <v>1138</v>
       </c>
       <c r="J201" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K201" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N201" s="10" t="s">
         <v>40</v>
@@ -15773,7 +15773,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1">
       <c r="A202" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>874</v>
@@ -15800,16 +15800,16 @@
         <v>878</v>
       </c>
       <c r="J202" s="10" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="K202" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L202" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L202" s="3" t="s">
+      <c r="M202" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M202" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N202" s="10" t="s">
         <v>44</v>
@@ -15823,7 +15823,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1">
       <c r="A203" s="10" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>1141</v>
@@ -15853,13 +15853,13 @@
         <v>991</v>
       </c>
       <c r="K203" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N203" s="10" t="s">
         <v>44</v>
@@ -15873,7 +15873,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1">
       <c r="A204" s="10" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B204" s="10" t="s">
         <v>723</v>
@@ -15894,22 +15894,22 @@
         <v>726</v>
       </c>
       <c r="H204" s="10" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="I204" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="J204" s="10" t="s">
         <v>390</v>
       </c>
       <c r="K204" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L204" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L204" s="3" t="s">
+      <c r="M204" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="M204" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="N204" s="10" t="s">
         <v>40</v>
@@ -15923,7 +15923,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1">
       <c r="A206" s="10" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="P206" s="10" t="s">
         <v>866</v>
@@ -15962,7 +15962,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1" t="s">
         <v>151</v>
@@ -16003,7 +16003,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1" t="s">
         <v>914</v>
@@ -16031,13 +16031,13 @@
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>40</v>
@@ -16051,7 +16051,7 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>37</v>
@@ -16078,13 +16078,13 @@
         <v>991</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>44</v>
@@ -16098,7 +16098,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B3" t="s">
         <v>102</v>
@@ -16125,13 +16125,13 @@
         <v>865</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>1470</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>44</v>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>971</v>
@@ -16163,7 +16163,7 @@
         <v>1128</v>
       </c>
       <c r="G4" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>1126</v>
@@ -16175,13 +16175,13 @@
         <v>217</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>44</v>
